--- a/data/trans_orig/IP26C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP26C-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F2BF303-1721-42A9-BC5B-7755B9204A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{035BFEF3-7F4A-49B7-9DC2-E8148A291504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FEEA1575-121D-440F-81CD-A25EF131B17E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6971CBCF-5016-4B59-9D11-E002AB841931}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="392">
   <si>
     <t>Menores según si han sufrido alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,43%)</t>
   </si>
@@ -107,1156 +107,1114 @@
     <t>93,27%</t>
   </si>
   <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>79,85%</t>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>91,85%</t>
   </si>
   <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2012 (Tasa respuesta: 98,9%)</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2012 (Tasa respuesta: 98,9%)</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2015 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,51%</t>
+    <t>1,34%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>1,36%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478DF378-A521-41C1-A987-268D076EC91E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D17521-D189-4CE2-8E68-FA140BF8447E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2193,7 +2151,7 @@
         <v>643</v>
       </c>
       <c r="D12" s="7">
-        <v>426795</v>
+        <v>426796</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>47</v>
@@ -2295,7 +2253,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>65</v>
@@ -2331,10 +2289,10 @@
         <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,7 +2304,7 @@
         <v>713</v>
       </c>
       <c r="D15" s="7">
-        <v>472882</v>
+        <v>472883</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2390,7 +2348,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2402,13 +2360,13 @@
         <v>141089</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>224</v>
@@ -2417,13 +2375,13 @@
         <v>153680</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>435</v>
@@ -2432,13 +2390,13 @@
         <v>294768</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,13 +2411,13 @@
         <v>14312</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -2468,13 +2426,13 @@
         <v>17801</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -2483,13 +2441,13 @@
         <v>32113</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,13 +2462,13 @@
         <v>1405</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2519,13 +2477,13 @@
         <v>1216</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -2534,13 +2492,13 @@
         <v>2621</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2566,13 @@
         <v>648955</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>898</v>
@@ -2623,13 +2581,13 @@
         <v>600121</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>1873</v>
@@ -2638,13 +2596,13 @@
         <v>1249077</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2617,13 @@
         <v>61352</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H21" s="7">
         <v>111</v>
@@ -2674,13 +2632,13 @@
         <v>74903</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M21" s="7">
         <v>203</v>
@@ -2689,7 +2647,7 @@
         <v>136255</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>115</v>
@@ -2731,7 +2689,7 @@
         <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -2740,13 +2698,13 @@
         <v>10253</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,7 +2760,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2822,7 +2780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AD4286-3611-4D84-AEB1-8DE5730635C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE873365-4160-4E08-9289-45EA6DE42A9D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2839,7 +2797,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3144,13 +3102,13 @@
         <v>71686</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
         <v>119</v>
@@ -3159,13 +3117,13 @@
         <v>81370</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>219</v>
@@ -3174,13 +3132,13 @@
         <v>153056</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3153,13 @@
         <v>13283</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -3210,13 +3168,13 @@
         <v>9299</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -3225,13 +3183,13 @@
         <v>22582</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3204,13 @@
         <v>1223</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3261,13 +3219,13 @@
         <v>1700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3276,13 +3234,13 @@
         <v>2923</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,7 +3267,7 @@
         <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -3350,13 +3308,13 @@
         <v>438213</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H12" s="7">
         <v>578</v>
@@ -3365,13 +3323,13 @@
         <v>397524</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" s="7">
         <v>1203</v>
@@ -3380,13 +3338,13 @@
         <v>835737</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3359,13 @@
         <v>44992</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -3416,13 +3374,13 @@
         <v>48076</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -3431,13 +3389,13 @@
         <v>93068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3410,13 @@
         <v>4585</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3467,13 +3425,13 @@
         <v>2290</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -3482,13 +3440,13 @@
         <v>6875</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,7 +3502,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3556,13 +3514,13 @@
         <v>153151</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
         <v>215</v>
@@ -3571,13 +3529,13 @@
         <v>151464</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>431</v>
@@ -3586,13 +3544,13 @@
         <v>304616</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3565,13 @@
         <v>15072</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -3622,13 +3580,13 @@
         <v>11854</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -3661,10 +3619,10 @@
         <v>193</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3679,7 +3637,7 @@
         <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -3688,13 +3646,13 @@
         <v>2128</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3720,13 @@
         <v>663691</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H20" s="7">
         <v>912</v>
@@ -3777,13 +3735,13 @@
         <v>630359</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M20" s="7">
         <v>1854</v>
@@ -3792,13 +3750,13 @@
         <v>1294050</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3771,13 @@
         <v>73347</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="H21" s="7">
         <v>97</v>
@@ -3828,13 +3786,13 @@
         <v>69229</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M21" s="7">
         <v>205</v>
@@ -3843,13 +3801,13 @@
         <v>142576</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3822,13 @@
         <v>7936</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3879,13 +3837,13 @@
         <v>3990</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -3894,13 +3852,13 @@
         <v>11925</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,7 +3914,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3976,7 +3934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE3FA32-6CE9-4673-8827-C84DF865F4F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615800A8-1F5E-40DD-AEC6-523CBB1DABB0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3993,7 +3951,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4282,13 +4240,13 @@
         <v>63554</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -4297,13 +4255,13 @@
         <v>53714</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>172</v>
@@ -4312,13 +4270,13 @@
         <v>117269</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4291,13 @@
         <v>5060</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -4348,13 +4306,13 @@
         <v>3236</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -4363,13 +4321,13 @@
         <v>8296</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,7 +4348,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4399,13 +4357,13 @@
         <v>1864</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4414,13 +4372,13 @@
         <v>1864</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4446,13 @@
         <v>437069</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H12" s="7">
         <v>641</v>
@@ -4503,13 +4461,13 @@
         <v>423305</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M12" s="7">
         <v>1263</v>
@@ -4518,13 +4476,13 @@
         <v>860375</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>255</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4497,13 @@
         <v>44558</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -4554,13 +4512,13 @@
         <v>41543</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -4569,13 +4527,13 @@
         <v>86101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4548,13 @@
         <v>2147</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>118</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -4608,10 +4566,10 @@
         <v>120</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4620,13 +4578,13 @@
         <v>4884</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,7 +4640,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4694,13 +4652,13 @@
         <v>169270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>270</v>
+        <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H16" s="7">
         <v>231</v>
@@ -4709,13 +4667,13 @@
         <v>154378</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>274</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>476</v>
@@ -4724,13 +4682,13 @@
         <v>323649</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +4703,13 @@
         <v>15806</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>138</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -4760,13 +4718,13 @@
         <v>14278</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -4775,13 +4733,13 @@
         <v>30085</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>60</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4754,13 @@
         <v>1081</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -4811,13 +4769,13 @@
         <v>1881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -4826,13 +4784,13 @@
         <v>2963</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,13 +4858,13 @@
         <v>669894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="H20" s="7">
         <v>952</v>
@@ -4915,13 +4873,13 @@
         <v>631399</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>1911</v>
@@ -4930,13 +4888,13 @@
         <v>1301293</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,13 +4909,13 @@
         <v>65424</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H21" s="7">
         <v>87</v>
@@ -4966,13 +4924,13 @@
         <v>59057</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M21" s="7">
         <v>180</v>
@@ -4981,13 +4939,13 @@
         <v>124482</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +4960,13 @@
         <v>3228</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5017,13 +4975,13 @@
         <v>6482</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>68</v>
+        <v>306</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -5032,13 +4990,13 @@
         <v>9710</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,7 +5052,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5114,7 +5072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFFCDDC-E1CE-48B3-A365-C6C5D6B1A3AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89493B7F-7B44-4C43-9BA1-1447945E681E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5131,7 +5089,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5436,13 +5394,13 @@
         <v>49970</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -5451,13 +5409,13 @@
         <v>46846</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>133</v>
@@ -5466,13 +5424,13 @@
         <v>96816</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5445,13 @@
         <v>8787</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -5502,13 +5460,13 @@
         <v>4356</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -5517,13 +5475,13 @@
         <v>13143</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,7 +5502,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5559,7 +5517,7 @@
         <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5642,13 +5600,13 @@
         <v>439855</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>337</v>
+        <v>265</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H12" s="7">
         <v>575</v>
@@ -5657,13 +5615,13 @@
         <v>403268</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M12" s="7">
         <v>1161</v>
@@ -5672,13 +5630,13 @@
         <v>843123</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5651,13 @@
         <v>49444</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -5708,13 +5666,13 @@
         <v>41655</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
         <v>125</v>
@@ -5723,13 +5681,13 @@
         <v>91100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,13 +5702,13 @@
         <v>2644</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>347</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5759,13 +5717,13 @@
         <v>3017</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>121</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -5774,13 +5732,13 @@
         <v>5661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,7 +5794,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5848,13 +5806,13 @@
         <v>153252</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>209</v>
@@ -5863,13 +5821,13 @@
         <v>138747</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>365</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
         <v>416</v>
@@ -5878,13 +5836,13 @@
         <v>291998</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>369</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,13 +5857,13 @@
         <v>18609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>371</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -5914,13 +5872,13 @@
         <v>11365</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -5929,13 +5887,13 @@
         <v>29974</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>376</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,13 +5908,13 @@
         <v>2722</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -5965,13 +5923,13 @@
         <v>1258</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>380</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -5980,13 +5938,13 @@
         <v>3980</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>70</v>
+        <v>371</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,13 +6012,13 @@
         <v>643076</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>384</v>
+        <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="H20" s="7">
         <v>846</v>
@@ -6069,13 +6027,13 @@
         <v>590032</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>387</v>
+        <v>50</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>388</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>1711</v>
@@ -6084,13 +6042,13 @@
         <v>1233109</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6063,13 @@
         <v>76840</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6120,13 +6078,13 @@
         <v>57376</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="M21" s="7">
         <v>187</v>
@@ -6135,13 +6093,13 @@
         <v>134216</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,10 +6117,10 @@
         <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -6171,13 +6129,13 @@
         <v>4276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>291</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -6186,13 +6144,13 @@
         <v>9642</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>405</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6248,7 +6206,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
